--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B3F33A-8C25-4DFD-8225-1DBA1277608D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CDABF1-0088-41DD-AF8E-B1A4AF582BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{76C0CE43-5163-4821-BBC2-E4DEA2970795}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="555">
   <si>
     <t>指数代码</t>
   </si>
@@ -744,30 +744,18 @@
     <t>INSYBUE.GI</t>
   </si>
   <si>
-    <t>巴克莱资本美国综合债券</t>
-  </si>
-  <si>
     <t>海外综合</t>
   </si>
   <si>
     <t>类型</t>
   </si>
   <si>
-    <t>NH0100.NHF</t>
-  </si>
-  <si>
-    <t>商品指数</t>
-  </si>
-  <si>
     <t>宽基</t>
   </si>
   <si>
     <t>NH0500.NHF</t>
   </si>
   <si>
-    <t>能化指数</t>
-  </si>
-  <si>
     <t>板块</t>
   </si>
   <si>
@@ -780,9 +768,6 @@
     <t>NH0800.NHF</t>
   </si>
   <si>
-    <t>黑色指数</t>
-  </si>
-  <si>
     <t>NH0700.NHF</t>
   </si>
   <si>
@@ -807,9 +792,6 @@
     <t>HTCI0102.WI</t>
   </si>
   <si>
-    <t>农产品动量</t>
-  </si>
-  <si>
     <t>HTCI0103.WI</t>
   </si>
   <si>
@@ -825,21 +807,12 @@
     <t>HTCI0201.WI</t>
   </si>
   <si>
-    <t>商品期限结构</t>
-  </si>
-  <si>
     <t>HTCI0202.WI</t>
   </si>
   <si>
-    <t>农产品期限结构</t>
-  </si>
-  <si>
     <t>HTCI0203.WI</t>
   </si>
   <si>
-    <t>工业品期限结构</t>
-  </si>
-  <si>
     <t>HTCI0204.WI</t>
   </si>
   <si>
@@ -855,9 +828,6 @@
     <t>BU.SHF</t>
   </si>
   <si>
-    <t>SHFE沥青</t>
-  </si>
-  <si>
     <t>能化</t>
   </si>
   <si>
@@ -882,9 +852,6 @@
     <t>FU.SHF</t>
   </si>
   <si>
-    <t>SHFE燃油</t>
-  </si>
-  <si>
     <t>L.DCE</t>
   </si>
   <si>
@@ -900,9 +867,6 @@
     <t>MA.CZC</t>
   </si>
   <si>
-    <t>CZCE甲醇</t>
-  </si>
-  <si>
     <t>NR.INE</t>
   </si>
   <si>
@@ -912,9 +876,6 @@
     <t>PF.CZC</t>
   </si>
   <si>
-    <t>CZCE短纤</t>
-  </si>
-  <si>
     <t>PG.DCE</t>
   </si>
   <si>
@@ -936,15 +897,9 @@
     <t>SA.CZC</t>
   </si>
   <si>
-    <t>CZCE纯碱</t>
-  </si>
-  <si>
     <t>SC.INE</t>
   </si>
   <si>
-    <t>INE原油</t>
-  </si>
-  <si>
     <t>SP.SHF</t>
   </si>
   <si>
@@ -954,15 +909,9 @@
     <t>TA.CZC</t>
   </si>
   <si>
-    <t>CZCE PTA</t>
-  </si>
-  <si>
     <t>UR.CZC</t>
   </si>
   <si>
-    <t>CZCE尿素</t>
-  </si>
-  <si>
     <t>V.DCE</t>
   </si>
   <si>
@@ -972,15 +921,9 @@
     <t>ZC.CZC</t>
   </si>
   <si>
-    <t>CZCE动力煤</t>
-  </si>
-  <si>
     <t>HC.SHF</t>
   </si>
   <si>
-    <t>SHFE热轧卷板</t>
-  </si>
-  <si>
     <t>黑色</t>
   </si>
   <si>
@@ -993,15 +936,9 @@
     <t>J.DCE</t>
   </si>
   <si>
-    <t>DCE焦炭</t>
-  </si>
-  <si>
     <t>JM.DCE</t>
   </si>
   <si>
-    <t>DCE焦煤</t>
-  </si>
-  <si>
     <t>RB.SHF</t>
   </si>
   <si>
@@ -1017,21 +954,12 @@
     <t>SM.CZC</t>
   </si>
   <si>
-    <t>CZCE锰硅</t>
-  </si>
-  <si>
     <t>SS.SHF</t>
   </si>
   <si>
-    <t>SHFE不锈钢</t>
-  </si>
-  <si>
     <t>WR.SHF</t>
   </si>
   <si>
-    <t>SHFE线材</t>
-  </si>
-  <si>
     <t>AG.SHF</t>
   </si>
   <si>
@@ -1045,14 +973,6 @@
   </si>
   <si>
     <t>SHFE黄金</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
@@ -1442,6 +1362,404 @@
   </si>
   <si>
     <t>富时欧洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>CBA00123.CB</t>
+  </si>
+  <si>
+    <t>中债新综合指数(1-3年)全价指数</t>
+  </si>
+  <si>
+    <t>CBA00133.CB</t>
+  </si>
+  <si>
+    <t>CBA00143.CB</t>
+  </si>
+  <si>
+    <t>CBA00153.CB</t>
+  </si>
+  <si>
+    <t>CBA00163.CB</t>
+  </si>
+  <si>
+    <t>"锁":需要获中债股指中心授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴克莱资本美国综合债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N'A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH0100.NHF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能化指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品动量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产品动量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品期限结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产品期限结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业品期限结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H30071.CSI</t>
+  </si>
+  <si>
+    <t>能化CFI</t>
+  </si>
+  <si>
+    <t>H30009.CSI</t>
+  </si>
+  <si>
+    <t>商品CFI</t>
+  </si>
+  <si>
+    <t>850200.TI</t>
+  </si>
+  <si>
+    <t>农产品</t>
+  </si>
+  <si>
+    <t>850104.TI</t>
+  </si>
+  <si>
+    <t>黑色产业</t>
+  </si>
+  <si>
+    <t>CI005003.CI</t>
+  </si>
+  <si>
+    <t>CI005106.CI</t>
+  </si>
+  <si>
+    <t>930665.CSI</t>
+  </si>
+  <si>
+    <t>850100.TI</t>
+  </si>
+  <si>
+    <t>工业品</t>
+  </si>
+  <si>
+    <t>NHECI.SL</t>
+  </si>
+  <si>
+    <t>南华能化</t>
+  </si>
+  <si>
+    <t>930666.CSI</t>
+  </si>
+  <si>
+    <t>商品趋势</t>
+  </si>
+  <si>
+    <t>DCEAFPI.DCE</t>
+  </si>
+  <si>
+    <t>农产品价格指数</t>
+  </si>
+  <si>
+    <t>DCEIFPI.DCE</t>
+  </si>
+  <si>
+    <t>工业品价格指数</t>
+  </si>
+  <si>
+    <t>000502.CZC</t>
+  </si>
+  <si>
+    <t>易盛能化</t>
+  </si>
+  <si>
+    <t>805001.SL</t>
+  </si>
+  <si>
+    <t>申万商品期货指数</t>
+  </si>
+  <si>
+    <t>区间涨跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHFE沥青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHFE燃油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE甲醇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE短纤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE纯碱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INE原油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE PTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE尿素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE动力煤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHFE热轧卷板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCE焦炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCE焦煤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE锰硅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHFE不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHFE线材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHBUI.SL</t>
+  </si>
+  <si>
+    <t>南华沥青</t>
+  </si>
+  <si>
+    <t>DCEEBFI.DCE</t>
+  </si>
+  <si>
+    <t>苯乙烯价格指数</t>
+  </si>
+  <si>
+    <t>DCEEGFI.DCE</t>
+  </si>
+  <si>
+    <t>乙二醇价格指数</t>
+  </si>
+  <si>
+    <t>CI005438.CI</t>
+  </si>
+  <si>
+    <t>玻璃指数</t>
+  </si>
+  <si>
+    <t>NHFUI.SL</t>
+  </si>
+  <si>
+    <t>南华燃油</t>
+  </si>
+  <si>
+    <t>DCELFI.DCE</t>
+  </si>
+  <si>
+    <t>聚乙烯价格指数</t>
+  </si>
+  <si>
+    <t>NHLUI.SL</t>
+  </si>
+  <si>
+    <t>南华低硫燃料油</t>
+  </si>
+  <si>
+    <t>NHMAI.SL</t>
+  </si>
+  <si>
+    <t>南华甲醇</t>
+  </si>
+  <si>
+    <t>NHNRI.SL</t>
+  </si>
+  <si>
+    <t>南华20号胶</t>
+  </si>
+  <si>
+    <t>NHPFI.SL</t>
+  </si>
+  <si>
+    <t>南华短纤</t>
+  </si>
+  <si>
+    <t>DCEPGFI.DCE</t>
+  </si>
+  <si>
+    <t>液化石油气价格指数</t>
+  </si>
+  <si>
+    <t>DCEPPFI.DCE</t>
+  </si>
+  <si>
+    <t>聚丙烯价格指数</t>
+  </si>
+  <si>
+    <t>801037.SL</t>
+  </si>
+  <si>
+    <t>橡胶</t>
+  </si>
+  <si>
+    <t>CI005244.CI</t>
+  </si>
+  <si>
+    <t>纯碱指数</t>
+  </si>
+  <si>
+    <t>931337.CSI</t>
+  </si>
+  <si>
+    <t>原油CFI</t>
+  </si>
+  <si>
+    <t>NHSPI.SL</t>
+  </si>
+  <si>
+    <t>南华纸浆</t>
+  </si>
+  <si>
+    <t>NHTAI.SL</t>
+  </si>
+  <si>
+    <t>南华PTA</t>
+  </si>
+  <si>
+    <t>NHURI.SL</t>
+  </si>
+  <si>
+    <t>南华尿素</t>
+  </si>
+  <si>
+    <t>DCEVFI.DCE</t>
+  </si>
+  <si>
+    <t>聚氯乙烯价格指数</t>
+  </si>
+  <si>
+    <t>859511.SL</t>
+  </si>
+  <si>
+    <t>动力煤</t>
+  </si>
+  <si>
+    <t>NHHCI.SL</t>
+  </si>
+  <si>
+    <t>南华热轧卷板</t>
+  </si>
+  <si>
+    <t>DCEIFI.DCE</t>
+  </si>
+  <si>
+    <t>铁矿石价格指数</t>
+  </si>
+  <si>
+    <t>DCEJFI.DCE</t>
+  </si>
+  <si>
+    <t>焦炭价格指数</t>
+  </si>
+  <si>
+    <t>DCEJMFI.DCE</t>
+  </si>
+  <si>
+    <t>焦煤价格指数</t>
+  </si>
+  <si>
+    <t>NHRBI.SL</t>
+  </si>
+  <si>
+    <t>南华螺纹钢</t>
+  </si>
+  <si>
+    <t>NHSFI.SL</t>
+  </si>
+  <si>
+    <t>南华硅铁</t>
+  </si>
+  <si>
+    <t>NHSMI.SL</t>
+  </si>
+  <si>
+    <t>南华锰硅</t>
+  </si>
+  <si>
+    <t>NHSSI.SL</t>
+  </si>
+  <si>
+    <t>南华不锈钢</t>
+  </si>
+  <si>
+    <t>NHWRI.SL</t>
+  </si>
+  <si>
+    <t>南华线材</t>
+  </si>
+  <si>
+    <t>NHAGI.SL</t>
+  </si>
+  <si>
+    <t>南华白银</t>
+  </si>
+  <si>
+    <t>CI005213.CI</t>
+  </si>
+  <si>
+    <t>黄金指数</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1771,7 @@
     <numFmt numFmtId="177" formatCode="[Red]#,##0.0000;[Green]\-#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="179" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1557,17 +1875,14 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1586,6 +1901,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,14 +1940,14 @@
   <volType type="realTimeData">
     <main first="tdf.quote">
       <tp>
-        <v>-0.20313788524835757</v>
+        <v>-1.9773696135668692</v>
         <stp/>
         <stp>931087.CSI</stp>
         <stp>changeRatio</stp>
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>7.9976168794047432E-5</v>
+        <v>-1.2834270653282007</v>
         <stp/>
         <stp>932000.CSI</stp>
         <stp>changeRatio</stp>
@@ -1643,50 +1961,50 @@
         <tr r="D92" s="1"/>
       </tp>
       <tp>
-        <v>-0.95746010357340861</v>
+        <v>-0.64893903496604355</v>
         <stp/>
         <stp>H30533.CSI</stp>
         <stp>changeRatio</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>-0.19855466706861494</v>
+        <v>-1.4247172089005875</v>
         <stp/>
         <stp>930715.CSI</stp>
         <stp>changeRatio</stp>
         <tr r="D102" s="1"/>
       </tp>
       <tp>
-        <v>0.95051213881094421</v>
+        <v>-0.21311084784557344</v>
         <stp/>
         <stp>N225.GI</stp>
         <stp>changeRatio</stp>
         <tr r="D96" s="1"/>
       </tp>
       <tp>
-        <v>-0.61171158584602359</v>
+        <v>-0.39104244439864555</v>
         <stp/>
         <stp>HSCE.HK</stp>
         <stp>changeRatio</stp>
+        <tr r="D12" s="1"/>
         <tr r="D94" s="1"/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.33922896512496115</v>
+      </tp>
+      <tp>
+        <v>-0.59755572958604231</v>
         <stp/>
         <stp>FCHI.GI</stp>
         <stp>changeRatio</stp>
         <tr r="D100" s="1"/>
       </tp>
       <tp>
-        <v>0.43978353632916478</v>
+        <v>-0.20033131717840949</v>
         <stp/>
         <stp>FTSE.GI</stp>
         <stp>changeRatio</stp>
         <tr r="D98" s="1"/>
       </tp>
       <tp>
-        <v>-0.30673712997523345</v>
+        <v>-0.52723424794859808</v>
         <stp/>
         <stp>AW11.FS</stp>
         <stp>changeRatio</stp>
@@ -1700,14 +2018,14 @@
         <tr r="D95" s="1"/>
       </tp>
       <tp>
-        <v>-0.38991072834727974</v>
+        <v>-9.2478096781896779E-2</v>
         <stp/>
         <stp>HSI.HK</stp>
         <stp>changeRatio</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>-0.38991072834727974</v>
+        <v>-9.2478096781896779E-2</v>
         <stp/>
         <stp>HSI.GI</stp>
         <stp>changeRatio</stp>
@@ -1750,63 +2068,63 @@
         <tr r="D49" s="1"/>
       </tp>
       <tp>
-        <v>-0.31980960172548101</v>
+        <v>-0.14847976123857556</v>
         <stp/>
         <stp>HSHKI.HK</stp>
         <stp>changeRatio</stp>
         <tr r="D13" s="1"/>
       </tp>
       <tp>
-        <v>-0.31059006111803916</v>
+        <v>-0.13541626961278971</v>
         <stp/>
         <stp>399375.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>-0.41368349314844122</v>
+        <v>-0.91363174933459523</v>
         <stp/>
         <stp>399374.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>-3.2024112272769516E-2</v>
+        <v>-0.29945855631767587</v>
         <stp/>
         <stp>399377.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D22" s="1"/>
       </tp>
       <tp>
-        <v>1.6191743030888592E-2</v>
+        <v>-0.95003504227614299</v>
         <stp/>
         <stp>399376.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>-0.14060327910546364</v>
+        <v>-0.17639951088568182</v>
         <stp/>
         <stp>399373.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>-0.26144922922801256</v>
+        <v>-0.74627391068650584</v>
         <stp/>
         <stp>399372.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>-0.12748469019475114</v>
+        <v>-0.91082360758424075</v>
         <stp/>
         <stp>399317.SZ</stp>
         <stp>changeRatio</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>-0.58889389731435737</v>
+        <v>-1.1364966065995761</v>
         <stp/>
         <stp>399006.SZ</stp>
         <stp>changeRatio</stp>
@@ -1820,91 +2138,91 @@
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>0.51572077403805172</v>
+        <v>-1.7473944979410294</v>
         <stp/>
         <stp>885789.TI</stp>
         <stp>changeRatio</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>-0.1099372852215785</v>
+        <v>-1.2211410968083747</v>
         <stp/>
         <stp>885869.TI</stp>
         <stp>changeRatio</stp>
         <tr r="D28" s="1"/>
       </tp>
       <tp>
-        <v>-0.25426010107422392</v>
+        <v>-1.5979884349266065</v>
         <stp/>
         <stp>885929.TI</stp>
         <stp>changeRatio</stp>
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>-0.52091672736961103</v>
+        <v>-0.61066982787090962</v>
         <stp/>
         <stp>GDAXI.GI</stp>
         <stp>changeRatio</stp>
         <tr r="D99" s="1"/>
       </tp>
       <tp>
-        <v>-0.58181070751613229</v>
+        <v>-0.43701782047629739</v>
         <stp/>
         <stp>CI005917.CI</stp>
         <stp>changeRatio</stp>
         <tr r="D23" s="1"/>
       </tp>
       <tp>
-        <v>5.7169852738105903E-2</v>
+        <v>-0.66451851874019996</v>
         <stp/>
         <stp>CI005918.CI</stp>
         <stp>changeRatio</stp>
         <tr r="D24" s="1"/>
       </tp>
       <tp>
-        <v>0.13323913880250082</v>
+        <v>-0.50369353728107813</v>
         <stp/>
         <stp>CI005919.CI</stp>
         <stp>changeRatio</stp>
         <tr r="D25" s="1"/>
       </tp>
       <tp>
-        <v>-0.25631358841521074</v>
+        <v>-1.6022968385095955</v>
         <stp/>
         <stp>CI005920.CI</stp>
         <stp>changeRatio</stp>
         <tr r="D26" s="1"/>
       </tp>
       <tp>
-        <v>0.2594336602368168</v>
+        <v>0.14974260875969209</v>
         <stp/>
         <stp>CI005921.CI</stp>
         <stp>changeRatio</stp>
         <tr r="D27" s="1"/>
       </tp>
       <tp>
-        <v>-0.50928882178472523</v>
+        <v>-1.3602969403815814</v>
         <stp/>
         <stp>883406.TI</stp>
         <stp>changeRatio</stp>
         <tr r="D83" s="1"/>
       </tp>
       <tp>
-        <v>-0.51005921959926559</v>
+        <v>-0.56771273939232891</v>
         <stp/>
         <stp>883418.TI</stp>
         <stp>changeRatio</stp>
         <tr r="D37" s="1"/>
       </tp>
       <tp>
-        <v>-0.14105833515586735</v>
+        <v>-0.72137778546241582</v>
         <stp/>
         <stp>883417.TI</stp>
         <stp>changeRatio</stp>
         <tr r="D36" s="1"/>
       </tp>
       <tp>
-        <v>-2.4087861773018826</v>
+        <v>-1.3595157317261666</v>
         <stp/>
         <stp>883967.TI</stp>
         <stp>changeRatio</stp>
@@ -1967,63 +2285,63 @@
         <tr r="D91" s="1"/>
       </tp>
       <tp>
-        <v>-1.0737125131816592</v>
+        <v>-0.97951575902654286</v>
         <stp/>
         <stp>801790.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D62" s="1"/>
       </tp>
       <tp>
-        <v>-0.17834035473481794</v>
+        <v>1.6504598870028416E-2</v>
         <stp/>
         <stp>801780.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D61" s="1"/>
       </tp>
       <tp>
-        <v>-0.25780030952850502</v>
+        <v>-1.2648252134945701</v>
         <stp/>
         <stp>801730.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D56" s="1"/>
       </tp>
       <tp>
-        <v>-4.5662759589664002E-2</v>
+        <v>-8.9249180438342221E-2</v>
         <stp/>
         <stp>801720.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D81" s="1"/>
       </tp>
       <tp>
-        <v>-0.77486753866654934</v>
+        <v>-0.47896472757124636</v>
         <stp/>
         <stp>801710.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D73" s="1"/>
       </tp>
       <tp>
-        <v>0.43280514647761126</v>
+        <v>-1.886334007370019</v>
         <stp/>
         <stp>801770.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D58" s="1"/>
       </tp>
       <tp>
-        <v>-1.5320690069728373</v>
+        <v>-1.3570392979778791</v>
         <stp/>
         <stp>801760.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D64" s="1"/>
       </tp>
       <tp>
-        <v>-0.35911108758790111</v>
+        <v>-2.8517456980025488</v>
         <stp/>
         <stp>801750.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D68" s="1"/>
       </tp>
       <tp>
-        <v>-0.50362556796097646</v>
+        <v>-1.4775773577788938</v>
         <stp/>
         <stp>801740.SL</stp>
         <stp>changeRatio</stp>
@@ -2051,168 +2369,168 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>-0.55896038187594888</v>
+        <v>-0.46749775696477242</v>
         <stp/>
         <stp>801230.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D66" s="1"/>
       </tp>
       <tp>
-        <v>-0.69519575868281236</v>
+        <v>-1.0106900511535681</v>
         <stp/>
         <stp>801210.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D75" s="1"/>
       </tp>
       <tp>
-        <v>-0.52244813052838746</v>
+        <v>-0.78885519849802788</v>
         <stp/>
         <stp>801200.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D59" s="1"/>
       </tp>
       <tp>
-        <v>-0.42392458940894995</v>
+        <v>-2.2976072807295106E-2</v>
         <stp/>
         <stp>801180.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D71" s="1"/>
       </tp>
       <tp>
-        <v>-0.57174474363703154</v>
+        <v>-0.58022630309775647</v>
         <stp/>
         <stp>801130.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D72" s="1"/>
       </tp>
       <tp>
-        <v>-0.22774569565246122</v>
+        <v>7.6242510328448903E-3</v>
         <stp/>
         <stp>801120.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D53" s="1"/>
       </tp>
       <tp>
-        <v>1.0529592106696473</v>
+        <v>-0.75971271367970272</v>
         <stp/>
         <stp>801110.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D63" s="1"/>
       </tp>
       <tp>
-        <v>-6.3262795159599414E-2</v>
+        <v>-0.16335136817972604</v>
         <stp/>
         <stp>801170.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D67" s="1"/>
       </tp>
       <tp>
-        <v>0.42100155103447207</v>
+        <v>0.12938859935146646</v>
         <stp/>
         <stp>801160.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D55" s="1"/>
       </tp>
       <tp>
-        <v>0.37666353938635644</v>
+        <v>-0.94492530725836021</v>
         <stp/>
         <stp>801150.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D77" s="1"/>
       </tp>
       <tp>
-        <v>-0.13460274342331943</v>
+        <v>-0.63377273282069013</v>
         <stp/>
         <stp>801140.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D60" s="1"/>
       </tp>
       <tp>
-        <v>-0.11874545789810251</v>
+        <v>-1.7567751008595482</v>
         <stp/>
         <stp>801080.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D74" s="1"/>
       </tp>
       <tp>
-        <v>0.18623603903011726</v>
+        <v>-0.68597696205594239</v>
         <stp/>
         <stp>801030.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D76" s="1"/>
       </tp>
       <tp>
-        <v>1.3147041524117153</v>
+        <v>-0.81297126466395864</v>
         <stp/>
         <stp>801010.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D52" s="1"/>
       </tp>
       <tp>
-        <v>-0.32986407070118279</v>
+        <v>-0.46852811641298853</v>
         <stp/>
         <stp>801050.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D80" s="1"/>
       </tp>
       <tp>
-        <v>-3.6983695168999485E-2</v>
+        <v>0.444457290744878</v>
         <stp/>
         <stp>801040.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D70" s="1"/>
       </tp>
       <tp>
-        <v>-0.65826328217822661</v>
+        <v>-0.96794744905342089</v>
         <stp/>
         <stp>801980.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D54" s="1"/>
       </tp>
       <tp>
-        <v>0.36834129185370446</v>
+        <v>0.42248545658628278</v>
         <stp/>
         <stp>801970.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D69" s="1"/>
       </tp>
       <tp>
-        <v>1.2582210886387873E-2</v>
+        <v>0.61990379038586441</v>
         <stp/>
         <stp>801960.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D57" s="1"/>
       </tp>
       <tp>
-        <v>-0.32823243253595691</v>
+        <v>1.0910118059398681</v>
         <stp/>
         <stp>801950.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D82" s="1"/>
       </tp>
       <tp>
-        <v>1.7746228926343074E-2</v>
+        <v>-1.2929067890446801</v>
         <stp/>
         <stp>801890.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D65" s="1"/>
       </tp>
       <tp>
-        <v>1.0360281614036253</v>
+        <v>-1.7422846896223771</v>
         <stp/>
         <stp>801880.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D79" s="1"/>
       </tp>
       <tp>
-        <v>-0.23137565470940016</v>
+        <v>-0.80232603590681861</v>
         <stp/>
         <stp>801841.SL</stp>
         <stp>changeRatio</stp>
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>0.13383859998598985</v>
+        <v>-0.18676095375010643</v>
         <stp/>
         <stp>801843.SL</stp>
         <stp>changeRatio</stp>
@@ -2275,28 +2593,28 @@
         <tr r="D47" s="1"/>
       </tp>
       <tp>
-        <v>-0.64902866084120137</v>
+        <v>-1.385284266098801</v>
         <stp/>
         <stp>000688.SH</stp>
         <stp>changeRatio</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>-0.18420507811463327</v>
+        <v>-0.63686645748018456</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>changeRatio</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>-0.17112417542988623</v>
+        <v>-0.28793402400634971</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>changeRatio</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>-6.5803942348807182E-2</v>
+        <v>-0.96223658924992417</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>changeRatio</stp>
@@ -2310,7 +2628,7 @@
         <tr r="D29" s="1"/>
       </tp>
       <tp>
-        <v>3.1863411099455008E-2</v>
+        <v>-1.3173021419297151</v>
         <stp/>
         <stp>000852.SH</stp>
         <stp>changeRatio</stp>
@@ -2359,6 +2677,94 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="2011362" cy="2278883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586185</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C1071E-F000-A2CD-1CD8-54A211DA3B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="0"/>
+          <a:ext cx="2005410" cy="2328863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657764B5-FC15-053B-0865-581067DDC30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2052637" y="2344770"/>
+          <a:ext cx="1885951" cy="1646617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,7 +3099,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
@@ -2708,13 +3114,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E7E878-A83E-4704-93C2-30962EB26BA8}">
   <dimension ref="A1:N342"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView zoomScale="109" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6875" customWidth="1"/>
     <col min="2" max="2" width="11.6875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="16" customWidth="1"/>
     <col min="4" max="4" width="7.5625" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
@@ -2732,16 +3140,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>396</v>
+        <v>311</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2753,34 +3161,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="str">
-        <f>B2</f>
+        <f t="shared" ref="A2:A9" si="0">B2</f>
         <v>399317.SZ</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5">
         <f>RTD("tdf.quote","",A2,"changeRatio")</f>
-        <v>-0.12748469019475114</v>
+        <v>-0.91082360758424075</v>
       </c>
       <c r="E2" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A2,-$J$3,$J$2)</f>
-        <v>-3.6493194779563001</v>
+        <v>-0.91083113136735006</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A2,$I$2,$J$2)/100000000</f>
-        <v>674.10724449839995</v>
+        <v>574.70166304999998</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -2790,81 +3198,81 @@
         <v>国证A指</v>
       </c>
       <c r="I2" s="13">
-        <v>44816</v>
+        <v>45181</v>
       </c>
       <c r="J2" s="12">
         <f ca="1">TODAY()</f>
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>000016.SH</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5">
         <f>RTD("tdf.quote","",A3,"changeRatio")</f>
-        <v>-0.17112417542988623</v>
+        <v>-0.28793402400634971</v>
       </c>
       <c r="E3" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A3,-$J$3,$J$2)</f>
-        <v>-10.464999784104</v>
+        <v>-0.28771332876508998</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A3,$I$2,$J$2)/100000000</f>
-        <v>31.711725598360999</v>
+        <v>22.392280499999998</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H27" si="0">C3</f>
+        <f t="shared" ref="H3:H27" si="1">C3</f>
         <v>上证50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="J3" s="1">
         <f ca="1">J2-I2</f>
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>000300.SH</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5">
         <f>RTD("tdf.quote","",A4,"changeRatio")</f>
-        <v>-0.18420507811463327</v>
+        <v>-0.63686645748018456</v>
       </c>
       <c r="E4" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A4,-$J$3,$J$2)</f>
-        <v>-9.5156037622942993</v>
+        <v>-0.63695871472589005</v>
       </c>
       <c r="F4" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A4,$I$2,$J$2)/100000000</f>
-        <v>125.29557014344</v>
+        <v>80.481139499999998</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>沪深300</v>
       </c>
       <c r="I4" s="11"/>
@@ -2873,337 +3281,337 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>000905.SH</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5">
         <f>RTD("tdf.quote","",A5,"changeRatio")</f>
-        <v>-6.5803942348807182E-2</v>
+        <v>-0.96223658924992417</v>
       </c>
       <c r="E5" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A5,-$J$3,$J$2)</f>
-        <v>-6.2593975307846001</v>
+        <v>-0.96221301333985998</v>
       </c>
       <c r="F5" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A5,$I$2,$J$2)/100000000</f>
-        <v>119.53079926229999</v>
+        <v>88.756839999999997</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中证500</v>
       </c>
       <c r="I5" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>000852.SH</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5">
         <f>RTD("tdf.quote","",A6,"changeRatio")</f>
-        <v>3.1863411099455008E-2</v>
+        <v>-1.3173021419297151</v>
       </c>
       <c r="E6" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A6,-$J$3,$J$2)</f>
-        <v>-7.5954422840072997</v>
+        <v>-1.3172868247387</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A6,$I$2,$J$2)/100000000</f>
-        <v>145.01544126229999</v>
+        <v>122.7724645</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中证1000</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>444</v>
+      <c r="I6" s="18" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>932000.CSI</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5">
         <f>RTD("tdf.quote","",A7,"changeRatio")</f>
-        <v>7.9976168794047432E-5</v>
+        <v>-1.2834270653282007</v>
       </c>
       <c r="E7" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A7,-$J$3,$J$2)</f>
-        <v>2.4195038849802</v>
+        <v>-1.2834270653282001</v>
       </c>
       <c r="F7" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A7,$I$2,$J$2)/100000000</f>
-        <v>192.10320149955001</v>
+        <v>183.31603804</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中证2000</v>
       </c>
       <c r="I7" t="str">
         <f>VLOOKUP(J7,$D$2:$H$102,5,0)</f>
-        <v>农林牧渔</v>
-      </c>
-      <c r="J7" s="16">
+        <v>煤炭</v>
+      </c>
+      <c r="J7" s="15">
         <f>MAX($D$2:$D$102)</f>
-        <v>1.3147041524117153</v>
-      </c>
-      <c r="K7" s="17"/>
+        <v>1.0910118059398681</v>
+      </c>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>399006.SZ</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5">
         <f>RTD("tdf.quote","",A8,"changeRatio")</f>
-        <v>-0.58889389731435737</v>
+        <v>-1.1364966065995761</v>
       </c>
       <c r="E8" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A8,-$J$3,$J$2)</f>
-        <v>-22.164155309590999</v>
+        <v>-1.1364728936380999</v>
       </c>
       <c r="F8" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A8,$I$2,$J$2)/100000000</f>
-        <v>116.8622592768</v>
+        <v>122.567881395</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>创业板指</v>
       </c>
       <c r="I8" t="str">
         <f>VLOOKUP(J8,$D$2:$H$102,5,0)</f>
-        <v>机构周调研前十</v>
-      </c>
-      <c r="J8" s="16">
+        <v>计算机</v>
+      </c>
+      <c r="J8" s="15">
         <f>MIN($D$2:$D$102)</f>
-        <v>-2.4087861773018826</v>
-      </c>
-      <c r="K8" s="17"/>
+        <v>-2.8517456980025488</v>
+      </c>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>000688.SH</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="5">
         <f>RTD("tdf.quote","",A9,"changeRatio")</f>
-        <v>-0.64902866084120137</v>
+        <v>-1.385284266098801</v>
       </c>
       <c r="E9" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A9,-$J$3,$J$2)</f>
-        <v>-19.890313904812</v>
+        <v>-1.3853364951902001</v>
       </c>
       <c r="F9" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A9,$I$2,$J$2)/100000000</f>
-        <v>15.211715815573999</v>
+        <v>15.488353</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>科创50</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="K9" s="17"/>
+      <c r="I9" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5">
         <f>RTD("tdf.quote","",A10,"changeRatio")</f>
-        <v>-0.38991072834727974</v>
+        <v>-9.2478096781896779E-2</v>
       </c>
       <c r="E10" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A10,-$J$3,$J$2)</f>
-        <v>-10.263148724331</v>
+        <v>-9.2478096781897001E-2</v>
       </c>
       <c r="F10" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A10,$I$2,$J$2)/100000000</f>
-        <v>119.79616466939</v>
+        <v>176.56851</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>恒生指数</v>
       </c>
       <c r="I10" t="str">
         <f ca="1">VLOOKUP(J10,$E$2:$H$102,4,0)</f>
-        <v>半年报预增</v>
-      </c>
-      <c r="J10" s="16">
+        <v>煤炭</v>
+      </c>
+      <c r="J10" s="15">
         <f ca="1">MAX($E$2:$E$102)</f>
-        <v>50.836988504102003</v>
-      </c>
-      <c r="K10" s="17"/>
+        <v>1.0910502367337001</v>
+      </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="5">
         <f>RTD("tdf.quote","",A11,"changeRatio")</f>
-        <v>-0.38991072834727974</v>
+        <v>-9.2478096781896779E-2</v>
       </c>
       <c r="E11" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A11,-$J$3,$J$2)</f>
-        <v>-10.263148724331</v>
+        <v>-9.2478096781897001E-2</v>
       </c>
       <c r="F11" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A11,$I$2,$J$2)/100000000</f>
-        <v>119.80790814694001</v>
+        <v>176.56851</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>恒生指数</v>
       </c>
       <c r="I11" t="str">
         <f ca="1">VLOOKUP(J11,$E$2:$H$102,4,0)</f>
-        <v>电力设备</v>
-      </c>
-      <c r="J11" s="16">
+        <v>计算机</v>
+      </c>
+      <c r="J11" s="15">
         <f ca="1">MIN($E$2:$E$102)</f>
-        <v>-27.161948720238001</v>
-      </c>
-      <c r="K11" s="17"/>
+        <v>-2.8517678304652998</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="5">
         <f>RTD("tdf.quote","",A12,"changeRatio")</f>
-        <v>-0.61171158584602359</v>
+        <v>-0.39104244439864555</v>
       </c>
       <c r="E12" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A12,-$J$3,$J$2)</f>
-        <v>-9.1336754022454993</v>
+        <v>-0.39104244439864999</v>
       </c>
       <c r="F12" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A12,$I$2,$J$2)/100000000</f>
-        <v>25.702422219183997</v>
+        <v>18.496096000000001</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>恒生国企指数</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="5">
         <f>RTD("tdf.quote","",A13,"changeRatio")</f>
-        <v>-0.31980960172548101</v>
+        <v>-0.14847976123857556</v>
       </c>
       <c r="E13" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A13,-$J$3,$J$2)</f>
-        <v>-10.251817229106001</v>
+        <v>-0.14847976123858</v>
       </c>
       <c r="F13" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A13,$I$2,$J$2)/100000000</f>
-        <v>86.117618706122002</v>
+        <v>125.26932050000001</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>恒生港股通</v>
       </c>
       <c r="I13" t="str">
         <f ca="1">VLOOKUP(J13,$F$2:$H$102,3,0)</f>
         <v>国证A指</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <f ca="1">MAX($F$2:$F$102)</f>
-        <v>674.10724449839995</v>
-      </c>
-      <c r="K13" s="17"/>
+        <v>574.70166304999998</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="str">
@@ -3213,46 +3621,46 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="5">
         <f>RTD("tdf.quote","",A14,"changeRatio")</f>
-        <v>-0.95746010357340861</v>
+        <v>-0.64893903496604355</v>
       </c>
       <c r="E14" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A14,-$J$3,$J$2)</f>
-        <v>0.42712240358266002</v>
+        <v>-0.64893903496604</v>
       </c>
       <c r="F14" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A14,$I$2,$J$2)/100000000</f>
-        <v>4.5329985108880004</v>
+        <v>1.8353373049999999</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中国互联网50</v>
       </c>
       <c r="I14" t="str">
         <f ca="1">VLOOKUP(J14,$F$2:$H$102,3,0)</f>
         <v>白酒</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <f ca="1">MIN($F$2:$F$102)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
-        <v>453</v>
+      <c r="A15" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="5">
@@ -3271,38 +3679,38 @@
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="I15" s="9"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
-        <v>451</v>
+      <c r="A16" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5">
         <f>RTD("tdf.quote","",A16,"changeRatio")</f>
-        <v>0.51572077403805172</v>
+        <v>-1.7473944979410294</v>
       </c>
       <c r="E16" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A16,-$J$3,$J$2)</f>
-        <v>-2.070661650506</v>
+        <v>-1.7473944979410001</v>
       </c>
       <c r="F16" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A16,$I$2,$J$2)/100000000</f>
-        <v>24.473799270492002</v>
+        <v>26.8835105</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="4"/>
@@ -3310,32 +3718,32 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="str">
-        <f>B17</f>
+        <f t="shared" ref="A17:A22" si="2">B17</f>
         <v>399372.SZ</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="5">
         <f>RTD("tdf.quote","",A17,"changeRatio")</f>
-        <v>-0.26144922922801256</v>
+        <v>-0.74627391068650584</v>
       </c>
       <c r="E17" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A17,-$J$3,$J$2)</f>
-        <v>-20.910034581973999</v>
+        <v>-0.74634685332467998</v>
       </c>
       <c r="F17" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A17,$I$2,$J$2)/100000000</f>
-        <v>24.456058479385</v>
+        <v>16.537574594999999</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>大盘成长</v>
       </c>
       <c r="I17" s="9"/>
@@ -3345,32 +3753,32 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="str">
-        <f>B18</f>
+        <f t="shared" si="2"/>
         <v>399373.SZ</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="5">
         <f>RTD("tdf.quote","",A18,"changeRatio")</f>
-        <v>-0.14060327910546364</v>
+        <v>-0.17639951088568182</v>
       </c>
       <c r="E18" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A18,-$J$3,$J$2)</f>
-        <v>2.5097541141430999</v>
+        <v>-0.17642563498426</v>
       </c>
       <c r="F18" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A18,$I$2,$J$2)/100000000</f>
-        <v>52.669427901066001</v>
+        <v>31.291055629999999</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>大盘价值</v>
       </c>
       <c r="I18" s="9"/>
@@ -3379,32 +3787,32 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="str">
-        <f>B19</f>
+        <f t="shared" si="2"/>
         <v>399374.SZ</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="5">
         <f>RTD("tdf.quote","",A19,"changeRatio")</f>
-        <v>-0.41368349314844122</v>
+        <v>-0.91363174933459523</v>
       </c>
       <c r="E19" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A19,-$J$3,$J$2)</f>
-        <v>-21.862782934156002</v>
+        <v>-0.91379739983420005</v>
       </c>
       <c r="F19" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A19,$I$2,$J$2)/100000000</f>
-        <v>13.297137388729999</v>
+        <v>8.1626327350000007</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中盘成长</v>
       </c>
       <c r="I19" s="9"/>
@@ -3413,32 +3821,32 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="str">
-        <f>B20</f>
+        <f t="shared" si="2"/>
         <v>399375.SZ</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="5">
         <f>RTD("tdf.quote","",A20,"changeRatio")</f>
-        <v>-0.31059006111803916</v>
+        <v>-0.13541626961278971</v>
       </c>
       <c r="E20" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A20,-$J$3,$J$2)</f>
-        <v>-1.9497398573886999</v>
+        <v>-0.13539419906003999</v>
       </c>
       <c r="F20" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A20,$I$2,$J$2)/100000000</f>
-        <v>35.312722476392999</v>
+        <v>24.774549074999999</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中盘价值</v>
       </c>
       <c r="I20" s="9"/>
@@ -3447,32 +3855,32 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="str">
-        <f>B21</f>
+        <f t="shared" si="2"/>
         <v>399376.SZ</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="5">
         <f>RTD("tdf.quote","",A21,"changeRatio")</f>
-        <v>1.6191743030888592E-2</v>
+        <v>-0.95003504227614299</v>
       </c>
       <c r="E21" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A21,-$J$3,$J$2)</f>
-        <v>-15.503438248621</v>
+        <v>-0.94998886330753995</v>
       </c>
       <c r="F21" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A21,$I$2,$J$2)/100000000</f>
-        <v>26.385696490246001</v>
+        <v>20.957107799999999</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>小盘成长</v>
       </c>
       <c r="I21" s="9"/>
@@ -3481,32 +3889,32 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="str">
-        <f>B22</f>
+        <f t="shared" si="2"/>
         <v>399377.SZ</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="5">
         <f>RTD("tdf.quote","",A22,"changeRatio")</f>
-        <v>-3.2024112272769516E-2</v>
+        <v>-0.29945855631767587</v>
       </c>
       <c r="E22" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A22,-$J$3,$J$2)</f>
-        <v>-2.3181746095037998</v>
+        <v>-0.29942713126383003</v>
       </c>
       <c r="F22" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A22,$I$2,$J$2)/100000000</f>
-        <v>38.149294653361004</v>
+        <v>29.720653705</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>小盘价值</v>
       </c>
       <c r="I22" s="9"/>
@@ -3515,31 +3923,31 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5">
         <f>RTD("tdf.quote","",A23,"changeRatio")</f>
-        <v>-0.58181070751613229</v>
+        <v>-0.43701782047629739</v>
       </c>
       <c r="E23" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A23,-$J$3,$J$2)</f>
-        <v>5.7336126115825001</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A23,$I$2,$J$2)/100000000</f>
-        <v>94.512561727777992</v>
+        <v>72.173834099999993</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>金融</v>
       </c>
       <c r="I23" s="9"/>
@@ -3548,31 +3956,31 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="5">
         <f>RTD("tdf.quote","",A24,"changeRatio")</f>
-        <v>5.7169852738105903E-2</v>
+        <v>-0.66451851874019996</v>
       </c>
       <c r="E24" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A24,-$J$3,$J$2)</f>
-        <v>-0.23106133666859999</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A24,$I$2,$J$2)/100000000</f>
-        <v>162.919212477</v>
+        <v>133.97951423999999</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>周期</v>
       </c>
       <c r="I24" s="9"/>
@@ -3581,31 +3989,31 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="5">
         <f>RTD("tdf.quote","",A25,"changeRatio")</f>
-        <v>0.13323913880250082</v>
+        <v>-0.50369353728107813</v>
       </c>
       <c r="E25" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A25,-$J$3,$J$2)</f>
-        <v>0.22159505162352999</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A25,$I$2,$J$2)/100000000</f>
-        <v>105.66820217674999</v>
+        <v>86.664159729999994</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>消费</v>
       </c>
       <c r="I25" s="9"/>
@@ -3614,31 +4022,31 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="5">
         <f>RTD("tdf.quote","",A26,"changeRatio")</f>
-        <v>-0.25631358841521074</v>
+        <v>-1.6022968385095955</v>
       </c>
       <c r="E26" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A26,-$J$3,$J$2)</f>
-        <v>-11.716470248984001</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A26,$I$2,$J$2)/100000000</f>
-        <v>262.72912933708</v>
+        <v>233.91144037000001</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>成长</v>
       </c>
       <c r="I26" s="9"/>
@@ -3647,31 +4055,31 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="5">
         <f>RTD("tdf.quote","",A27,"changeRatio")</f>
-        <v>0.2594336602368168</v>
+        <v>0.14974260875969209</v>
       </c>
       <c r="E27" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A27,-$J$3,$J$2)</f>
-        <v>10.197743460416</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A27,$I$2,$J$2)/100000000</f>
-        <v>62.725704918765004</v>
+        <v>44.104696050000001</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>稳定</v>
       </c>
       <c r="I27" s="9"/>
@@ -3679,46 +4087,46 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="15" t="s">
-        <v>440</v>
+      <c r="A28" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="5">
         <f>RTD("tdf.quote","",A28,"changeRatio")</f>
-        <v>-0.1099372852215785</v>
+        <v>-1.2211410968083747</v>
       </c>
       <c r="E28" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A28,-$J$3,$J$2)</f>
-        <v>50.836988504102003</v>
+        <v>-1.2211410968084</v>
       </c>
       <c r="F28" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A28,$I$2,$J$2)/100000000</f>
-        <v>45.196856236885004</v>
+        <v>53.28969</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="15" t="s">
-        <v>398</v>
+      <c r="A29" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>392</v>
+      <c r="C29" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="D29" s="5">
         <f>RTD("tdf.quote","",A29,"changeRatio")</f>
@@ -3736,81 +4144,81 @@
         <v>59</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="I29" s="9"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="15" t="s">
-        <v>400</v>
+      <c r="A30" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="5">
         <f>RTD("tdf.quote","",A30,"changeRatio")</f>
-        <v>-0.20313788524835757</v>
+        <v>-1.9773696135668692</v>
       </c>
       <c r="E30" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A30,-$J$3,$J$2)</f>
-        <v>-15.290939294817999</v>
+        <v>-1.9773696135669001</v>
       </c>
       <c r="F30" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A30,$I$2,$J$2)/100000000</f>
-        <v>12.90717943832</v>
+        <v>8.6470912599999998</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="I30" s="9"/>
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="15" t="s">
-        <v>442</v>
+      <c r="A31" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>393</v>
+      <c r="C31" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="D31" s="5">
         <f>RTD("tdf.quote","",A31,"changeRatio")</f>
-        <v>-2.4087861773018826</v>
+        <v>-1.3595157317261666</v>
       </c>
       <c r="E31" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A31,-$J$3,$J$2)</f>
-        <v>20.434382359859999</v>
+        <v>-1.3595157317262001</v>
       </c>
       <c r="F31" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A31,$I$2,$J$2)/100000000</f>
-        <v>1.7249725913525</v>
+        <v>1.6348958</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="I31" s="9"/>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="15" t="s">
-        <v>402</v>
+      <c r="A32" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="5">
@@ -3829,62 +4237,62 @@
         <v>59</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="I32" s="9"/>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
-        <v>404</v>
+      <c r="A33" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="5">
         <f>RTD("tdf.quote","",A33,"changeRatio")</f>
-        <v>-0.25426010107422392</v>
+        <v>-1.5979884349266065</v>
       </c>
       <c r="E33" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A33,-$J$3,$J$2)</f>
-        <v>8.5127379982783005</v>
+        <v>-1.5979884349266</v>
       </c>
       <c r="F33" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A33,$I$2,$J$2)/100000000</f>
-        <v>32.126362647541001</v>
+        <v>34.908137500000002</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="15" t="s">
-        <v>406</v>
+      <c r="A34" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="5">
         <f>RTD("tdf.quote","",A34,"changeRatio")</f>
-        <v>-0.23137565470940016</v>
+        <v>-0.80232603590681861</v>
       </c>
       <c r="E34" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A34,-$J$3,$J$2)</f>
-        <v>-19.603872558498999</v>
+        <v>-0.80220576517741005</v>
       </c>
       <c r="F34" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A34,$I$2,$J$2)/100000000</f>
-        <v>16.69151370082</v>
+        <v>15.308149999999999</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>59</v>
@@ -3895,26 +4303,26 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="15" t="s">
-        <v>407</v>
+      <c r="A35" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>394</v>
+      <c r="C35" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D35" s="5">
         <f>RTD("tdf.quote","",A35,"changeRatio")</f>
-        <v>0.13383859998598985</v>
+        <v>-0.18676095375010643</v>
       </c>
       <c r="E35" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A35,-$J$3,$J$2)</f>
-        <v>5.4821980888402004</v>
+        <v>-0.18667461026709001</v>
       </c>
       <c r="F35" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A35,$I$2,$J$2)/100000000</f>
-        <v>121.3191517418</v>
+        <v>106.0616</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>59</v>
@@ -3925,73 +4333,73 @@
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="15" t="s">
-        <v>408</v>
+      <c r="A36" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="5">
         <f>RTD("tdf.quote","",A36,"changeRatio")</f>
-        <v>-0.14105833515586735</v>
+        <v>-0.72137778546241582</v>
       </c>
       <c r="E36" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A36,-$J$3,$J$2)</f>
-        <v>-4.5715000000000003</v>
+        <v>-0.72137778546242004</v>
       </c>
       <c r="F36" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A36,$I$2,$J$2)/100000000</f>
-        <v>96.418430896551996</v>
+        <v>69.246331999999995</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="15" t="s">
-        <v>410</v>
+      <c r="A37" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>395</v>
+      <c r="C37" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="D37" s="5">
         <f>RTD("tdf.quote","",A37,"changeRatio")</f>
-        <v>-0.51005921959926559</v>
+        <v>-0.56771273939232891</v>
       </c>
       <c r="E37" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A37,-$J$3,$J$2)</f>
-        <v>7.9242999999999997</v>
+        <v>-0.56771273939233002</v>
       </c>
       <c r="F37" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A37,$I$2,$J$2)/100000000</f>
-        <v>10.268049774</v>
+        <v>9.6104233000000008</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="15" t="s">
-        <v>412</v>
+      <c r="A38" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="5">
@@ -4000,7 +4408,7 @@
       </c>
       <c r="E38" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A38,-$J$3,$J$2)</f>
-        <v>6.8804137914668999</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A38,$I$2,$J$2)/100000000</f>
@@ -4010,18 +4418,18 @@
         <v>59</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="15" t="s">
-        <v>414</v>
+      <c r="A39" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D39" s="5">
@@ -4030,7 +4438,7 @@
       </c>
       <c r="E39" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A39,-$J$3,$J$2)</f>
-        <v>-11.885173651935</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A39,$I$2,$J$2)/100000000</f>
@@ -4040,18 +4448,18 @@
         <v>59</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="15" t="s">
-        <v>416</v>
+      <c r="A40" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="5">
@@ -4070,18 +4478,18 @@
         <v>59</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="15" t="s">
-        <v>418</v>
+      <c r="A41" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="5">
@@ -4100,18 +4508,18 @@
         <v>59</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="15" t="s">
-        <v>420</v>
+      <c r="A42" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D42" s="5">
@@ -4130,18 +4538,18 @@
         <v>59</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="15" t="s">
-        <v>422</v>
+      <c r="A43" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="5">
@@ -4160,18 +4568,18 @@
         <v>59</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="15" t="s">
-        <v>424</v>
+      <c r="A44" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D44" s="5">
@@ -4190,18 +4598,18 @@
         <v>59</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="15" t="s">
-        <v>426</v>
+      <c r="A45" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="5">
@@ -4220,18 +4628,18 @@
         <v>59</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="15" t="s">
-        <v>428</v>
+      <c r="A46" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="5">
@@ -4250,18 +4658,18 @@
         <v>59</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="15" t="s">
-        <v>430</v>
+      <c r="A47" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="5">
@@ -4280,18 +4688,18 @@
         <v>59</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="15" t="s">
-        <v>432</v>
+      <c r="A48" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="5">
@@ -4310,18 +4718,18 @@
         <v>59</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49" s="15" t="s">
-        <v>434</v>
+      <c r="A49" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="5">
@@ -4340,19 +4748,19 @@
         <v>59</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" s="15" t="s">
-        <v>436</v>
+      <c r="A50" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>397</v>
+      <c r="C50" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="D50" s="5">
         <f>RTD("tdf.quote","",A50,"changeRatio")</f>
@@ -4370,18 +4778,18 @@
         <v>59</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="15" t="s">
-        <v>438</v>
+      <c r="A51" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="5">
@@ -4400,31 +4808,31 @@
         <v>59</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D52" s="5">
         <f>RTD("tdf.quote","",A52,"changeRatio")</f>
-        <v>1.3147041524117153</v>
+        <v>-0.81297126466395864</v>
       </c>
       <c r="E52" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A52,-$J$3,$J$2)</f>
-        <v>-11.640856442135</v>
+        <v>-0.81310867212862004</v>
       </c>
       <c r="F52" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A52,$I$2,$J$2)/100000000</f>
-        <v>13.428460953279</v>
+        <v>11.354799999999999</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>104</v>
@@ -4439,31 +4847,31 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D53" s="5">
         <f>RTD("tdf.quote","",A53,"changeRatio")</f>
-        <v>-0.22774569565246122</v>
+        <v>7.6242510328448903E-3</v>
       </c>
       <c r="E53" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A53,-$J$3,$J$2)</f>
-        <v>-0.16229452535079</v>
+        <v>7.6704586148715996E-3</v>
       </c>
       <c r="F53" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A53,$I$2,$J$2)/100000000</f>
-        <v>10.208246918852</v>
+        <v>8.4476499999999994</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" ref="H53:H102" si="1">C53</f>
+        <f t="shared" ref="H53:H102" si="3">C53</f>
         <v>食品饮料</v>
       </c>
       <c r="I53" s="9"/>
@@ -4472,31 +4880,31 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="5">
         <f>RTD("tdf.quote","",A54,"changeRatio")</f>
-        <v>-0.65826328217822661</v>
+        <v>-0.96794744905342089</v>
       </c>
       <c r="E54" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A54,-$J$3,$J$2)</f>
-        <v>-0.91189743894038</v>
+        <v>-0.96794744905342001</v>
       </c>
       <c r="F54" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A54,$I$2,$J$2)/100000000</f>
-        <v>1.7856325647951001</v>
+        <v>1.2443500000000001</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>美容护理</v>
       </c>
       <c r="I54" s="9"/>
@@ -4505,31 +4913,31 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D55" s="5">
         <f>RTD("tdf.quote","",A55,"changeRatio")</f>
-        <v>0.42100155103447207</v>
+        <v>0.12938859935146646</v>
       </c>
       <c r="E55" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A55,-$J$3,$J$2)</f>
-        <v>-1.7803850248402999</v>
+        <v>0.12961440842538</v>
       </c>
       <c r="F55" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A55,$I$2,$J$2)/100000000</f>
-        <v>24.796540852459003</v>
+        <v>19.099450000000001</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>公用事业</v>
       </c>
       <c r="I55" s="9"/>
@@ -4538,31 +4946,31 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="5">
         <f>RTD("tdf.quote","",A56,"changeRatio")</f>
-        <v>-0.25780030952850502</v>
+        <v>-1.2648252134945701</v>
       </c>
       <c r="E56" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A56,-$J$3,$J$2)</f>
-        <v>-27.161948720238001</v>
+        <v>-1.2648124427712</v>
       </c>
       <c r="F56" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A56,$I$2,$J$2)/100000000</f>
-        <v>34.583936188525001</v>
+        <v>22.804649999999999</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>电力设备</v>
       </c>
       <c r="I56" s="9"/>
@@ -4571,31 +4979,31 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D57" s="5">
         <f>RTD("tdf.quote","",A57,"changeRatio")</f>
-        <v>1.2582210886387873E-2</v>
+        <v>0.61990379038586441</v>
       </c>
       <c r="E57" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A57,-$J$3,$J$2)</f>
-        <v>7.7375291182510999</v>
+        <v>0.62007437480809002</v>
       </c>
       <c r="F57" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A57,$I$2,$J$2)/100000000</f>
-        <v>12.153834484426</v>
+        <v>9.8642500000000002</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>石油石化</v>
       </c>
       <c r="I57" s="9"/>
@@ -4604,792 +5012,792 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D58" s="5">
         <f>RTD("tdf.quote","",A58,"changeRatio")</f>
-        <v>0.43280514647761126</v>
+        <v>-1.886334007370019</v>
       </c>
       <c r="E58" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A58,-$J$3,$J$2)</f>
-        <v>27.465967670573001</v>
+        <v>-1.8864954532796001</v>
       </c>
       <c r="F58" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A58,$I$2,$J$2)/100000000</f>
-        <v>24.241536155738</v>
+        <v>23.521049999999999</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>通信</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D59" s="5">
         <f>RTD("tdf.quote","",A59,"changeRatio")</f>
-        <v>-0.52244813052838746</v>
+        <v>-0.78885519849802788</v>
       </c>
       <c r="E59" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A59,-$J$3,$J$2)</f>
-        <v>-14.481156648239001</v>
+        <v>-0.78871882060397003</v>
       </c>
       <c r="F59" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A59,$I$2,$J$2)/100000000</f>
-        <v>17.29460272623</v>
+        <v>11.551600000000001</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>商贸零售</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D60" s="5">
         <f>RTD("tdf.quote","",A60,"changeRatio")</f>
-        <v>-0.13460274342331943</v>
+        <v>-0.63377273282069013</v>
       </c>
       <c r="E60" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A60,-$J$3,$J$2)</f>
-        <v>-4.0279962515478998</v>
+        <v>-0.63381632403968002</v>
       </c>
       <c r="F60" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A60,$I$2,$J$2)/100000000</f>
-        <v>12.140203331147999</v>
+        <v>10.772</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>轻工制造</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D61" s="5">
         <f>RTD("tdf.quote","",A61,"changeRatio")</f>
-        <v>-0.17834035473481794</v>
+        <v>1.6504598870028416E-2</v>
       </c>
       <c r="E61" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A61,-$J$3,$J$2)</f>
-        <v>-8.3070382926494997</v>
+        <v>1.6569577605736002E-2</v>
       </c>
       <c r="F61" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A61,$I$2,$J$2)/100000000</f>
-        <v>24.115702221311</v>
+        <v>15.02685</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>银行</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D62" s="5">
         <f>RTD("tdf.quote","",A62,"changeRatio")</f>
-        <v>-1.0737125131816592</v>
+        <v>-0.97951575902654286</v>
       </c>
       <c r="E62" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A62,-$J$3,$J$2)</f>
-        <v>2.5237909591159999</v>
+        <v>-0.97932874526232006</v>
       </c>
       <c r="F62" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A62,$I$2,$J$2)/100000000</f>
-        <v>35.770142258196998</v>
+        <v>27.561299999999999</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>非银金融</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="5">
         <f>RTD("tdf.quote","",A63,"changeRatio")</f>
-        <v>1.0529592106696473</v>
+        <v>-0.75971271367970272</v>
       </c>
       <c r="E63" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A63,-$J$3,$J$2)</f>
-        <v>11.322492059187001</v>
+        <v>-0.75965671244767996</v>
       </c>
       <c r="F63" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A63,$I$2,$J$2)/100000000</f>
-        <v>9.6375444668033001</v>
+        <v>12.130599999999999</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>家用电器</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D64" s="5">
         <f>RTD("tdf.quote","",A64,"changeRatio")</f>
-        <v>-1.5320690069728373</v>
+        <v>-1.3570392979778791</v>
       </c>
       <c r="E64" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A64,-$J$3,$J$2)</f>
-        <v>16.021849989376001</v>
+        <v>-1.3567340709653</v>
       </c>
       <c r="F64" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A64,$I$2,$J$2)/100000000</f>
-        <v>43.776993815573995</v>
+        <v>23.21725</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>传媒</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="5">
         <f>RTD("tdf.quote","",A65,"changeRatio")</f>
-        <v>1.7746228926343074E-2</v>
+        <v>-1.2929067890446801</v>
       </c>
       <c r="E65" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A65,-$J$3,$J$2)</f>
-        <v>5.6471981057615999</v>
+        <v>-1.2927066796516</v>
       </c>
       <c r="F65" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A65,$I$2,$J$2)/100000000</f>
-        <v>37.360382081967003</v>
+        <v>32.114199999999997</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>机械设备</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="5">
         <f>RTD("tdf.quote","",A66,"changeRatio")</f>
-        <v>-0.55896038187594888</v>
+        <v>-0.46749775696477242</v>
       </c>
       <c r="E66" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A66,-$J$3,$J$2)</f>
-        <v>-0.21411464275190001</v>
+        <v>-0.46753561409951999</v>
       </c>
       <c r="F66" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A66,$I$2,$J$2)/100000000</f>
-        <v>2.5323554327869</v>
+        <v>1.9115</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>综合</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="5">
         <f>RTD("tdf.quote","",A67,"changeRatio")</f>
-        <v>-6.3262795159599414E-2</v>
+        <v>-0.16335136817972604</v>
       </c>
       <c r="E67" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A67,-$J$3,$J$2)</f>
-        <v>-5.9284601765199003</v>
+        <v>-0.16320985674324001</v>
       </c>
       <c r="F67" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A67,$I$2,$J$2)/100000000</f>
-        <v>22.102128356557003</v>
+        <v>16.37745</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>交通运输</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D68" s="5">
         <f>RTD("tdf.quote","",A68,"changeRatio")</f>
-        <v>-0.35911108758790111</v>
+        <v>-2.8517456980025488</v>
       </c>
       <c r="E68" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A68,-$J$3,$J$2)</f>
-        <v>2.7070167941152001</v>
+        <v>-2.8517678304652998</v>
       </c>
       <c r="F68" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A68,$I$2,$J$2)/100000000</f>
-        <v>52.660374586065998</v>
+        <v>50.993450000000003</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>计算机</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>138</v>
       </c>
       <c r="D69" s="5">
         <f>RTD("tdf.quote","",A69,"changeRatio")</f>
-        <v>0.36834129185370446</v>
+        <v>0.42248545658628278</v>
       </c>
       <c r="E69" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A69,-$J$3,$J$2)</f>
-        <v>-10.675118584719</v>
+        <v>0.42277034226165</v>
       </c>
       <c r="F69" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A69,$I$2,$J$2)/100000000</f>
-        <v>8.7812832844262001</v>
+        <v>10.368600000000001</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>环保</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D70" s="5">
         <f>RTD("tdf.quote","",A70,"changeRatio")</f>
-        <v>-3.6983695168999485E-2</v>
+        <v>0.444457290744878</v>
       </c>
       <c r="E70" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A70,-$J$3,$J$2)</f>
-        <v>-13.357760131919999</v>
+        <v>0.44423495092961002</v>
       </c>
       <c r="F70" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A70,$I$2,$J$2)/100000000</f>
-        <v>12.152844640573999</v>
+        <v>9.1847999999999992</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>钢铁</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D71" s="5">
         <f>RTD("tdf.quote","",A71,"changeRatio")</f>
-        <v>-0.42392458940894995</v>
+        <v>-2.2976072807295106E-2</v>
       </c>
       <c r="E71" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A71,-$J$3,$J$2)</f>
-        <v>-10.024767095336999</v>
+        <v>-2.3125268085278001E-2</v>
       </c>
       <c r="F71" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A71,$I$2,$J$2)/100000000</f>
-        <v>38.567643180328005</v>
+        <v>33.21575</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>房地产</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>144</v>
       </c>
       <c r="D72" s="5">
         <f>RTD("tdf.quote","",A72,"changeRatio")</f>
-        <v>-0.57174474363703154</v>
+        <v>-0.58022630309775647</v>
       </c>
       <c r="E72" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A72,-$J$3,$J$2)</f>
-        <v>0.10274566116213001</v>
+        <v>-0.57997897730784997</v>
       </c>
       <c r="F72" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A72,$I$2,$J$2)/100000000</f>
-        <v>9.811040447541</v>
+        <v>6.0399000000000003</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>纺织服饰</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D73" s="5">
         <f>RTD("tdf.quote","",A73,"changeRatio")</f>
-        <v>-0.77486753866654934</v>
+        <v>-0.47896472757124636</v>
       </c>
       <c r="E73" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A73,-$J$3,$J$2)</f>
-        <v>-16.548842617980998</v>
+        <v>-0.47889271362934999</v>
       </c>
       <c r="F73" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A73,$I$2,$J$2)/100000000</f>
-        <v>8.3317072770492011</v>
+        <v>6.8348000000000004</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>建筑材料</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>148</v>
       </c>
       <c r="D74" s="5">
         <f>RTD("tdf.quote","",A74,"changeRatio")</f>
-        <v>-0.11874545789810251</v>
+        <v>-1.7567751008595482</v>
       </c>
       <c r="E74" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A74,-$J$3,$J$2)</f>
-        <v>-14.057296053721</v>
+        <v>-1.7568293994038</v>
       </c>
       <c r="F74" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A74,$I$2,$J$2)/100000000</f>
-        <v>42.859272790984001</v>
+        <v>53.583649999999999</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>电子</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>150</v>
       </c>
       <c r="D75" s="5">
         <f>RTD("tdf.quote","",A75,"changeRatio")</f>
-        <v>-0.69519575868281236</v>
+        <v>-1.0106900511535681</v>
       </c>
       <c r="E75" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A75,-$J$3,$J$2)</f>
-        <v>1.4193949352774999</v>
+        <v>-1.0106482931412</v>
       </c>
       <c r="F75" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A75,$I$2,$J$2)/100000000</f>
-        <v>11.291121207377</v>
+        <v>6.4724500000000003</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>社会服务</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>152</v>
       </c>
       <c r="D76" s="5">
         <f>RTD("tdf.quote","",A76,"changeRatio")</f>
-        <v>0.18623603903011726</v>
+        <v>-0.68597696205594239</v>
       </c>
       <c r="E76" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A76,-$J$3,$J$2)</f>
-        <v>-14.555717616253</v>
+        <v>-0.68603072621943995</v>
       </c>
       <c r="F76" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A76,$I$2,$J$2)/100000000</f>
-        <v>26.353561807376998</v>
+        <v>25.091149999999999</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>基础化工</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D77" s="5">
         <f>RTD("tdf.quote","",A77,"changeRatio")</f>
-        <v>0.37666353938635644</v>
+        <v>-0.94492530725836021</v>
       </c>
       <c r="E77" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A77,-$J$3,$J$2)</f>
-        <v>-15.238367700241</v>
+        <v>-0.94492530725835999</v>
       </c>
       <c r="F77" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A77,$I$2,$J$2)/100000000</f>
-        <v>39.290383508196996</v>
+        <v>33.603450000000002</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>医药生物</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="5">
         <f>RTD("tdf.quote","",A78,"changeRatio")</f>
-        <v>-0.50362556796097646</v>
+        <v>-1.4775773577788938</v>
       </c>
       <c r="E78" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A78,-$J$3,$J$2)</f>
-        <v>-3.6732456140351002</v>
+        <v>-1.4777794242453</v>
       </c>
       <c r="F78" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A78,$I$2,$J$2)/100000000</f>
-        <v>13.194542081967001</v>
+        <v>13.45275</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>国防军工</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="5">
         <f>RTD("tdf.quote","",A79,"changeRatio")</f>
-        <v>1.0360281614036253</v>
+        <v>-1.7422846896223771</v>
       </c>
       <c r="E79" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A79,-$J$3,$J$2)</f>
-        <v>8.9274482180932004</v>
+        <v>-1.7423021668234</v>
       </c>
       <c r="F79" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A79,$I$2,$J$2)/100000000</f>
-        <v>28.900533217213003</v>
+        <v>31.320650000000001</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>汽车</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>160</v>
       </c>
       <c r="D80" s="5">
         <f>RTD("tdf.quote","",A80,"changeRatio")</f>
-        <v>-0.32986407070118279</v>
+        <v>-0.46852811641298853</v>
       </c>
       <c r="E80" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A80,-$J$3,$J$2)</f>
-        <v>-13.761431210893001</v>
+        <v>-0.46855062124591002</v>
       </c>
       <c r="F80" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A80,$I$2,$J$2)/100000000</f>
-        <v>25.301135151638999</v>
+        <v>18.0823</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>有色金属</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D81" s="5">
         <f>RTD("tdf.quote","",A81,"changeRatio")</f>
-        <v>-4.5662759589664002E-2</v>
+        <v>-8.9249180438342221E-2</v>
       </c>
       <c r="E81" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A81,-$J$3,$J$2)</f>
-        <v>-1.0394207179096</v>
+        <v>-8.9056625572245002E-2</v>
       </c>
       <c r="F81" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A81,$I$2,$J$2)/100000000</f>
-        <v>30.795732385246001</v>
+        <v>20.84815</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>建筑装饰</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D82" s="5">
         <f>RTD("tdf.quote","",A82,"changeRatio")</f>
-        <v>-0.32823243253595691</v>
+        <v>1.0910118059398681</v>
       </c>
       <c r="E82" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A82,-$J$3,$J$2)</f>
-        <v>3.1536195803420002</v>
+        <v>1.0910502367337001</v>
       </c>
       <c r="F82" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A82,$I$2,$J$2)/100000000</f>
-        <v>10.252635061066</v>
+        <v>10.3445</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>煤炭</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A83" s="15" t="s">
-        <v>448</v>
+      <c r="A83" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="D83" s="5">
         <f>RTD("tdf.quote","",A83,"changeRatio")</f>
-        <v>-0.50928882178472523</v>
+        <v>-1.3602969403815814</v>
       </c>
       <c r="E83" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A83,-$J$3,$J$2)</f>
-        <v>-15.235602413682001</v>
+        <v>-1.3602969403816001</v>
       </c>
       <c r="F83" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A83,$I$2,$J$2)/100000000</f>
-        <v>6.7981288198979994</v>
+        <v>5.0925194999999999</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D84" s="5">
         <f>RTD("tdf.quote","",A84,"changeRatio")</f>
@@ -5397,7 +5805,7 @@
       </c>
       <c r="E84" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A84,-$J$3,$J$2)</f>
-        <v>-9.3167396328293997</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A84,$I$2,$J$2)/100000000</f>
@@ -5407,7 +5815,7 @@
         <v>166</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>普通股票型基金指数</v>
       </c>
       <c r="I84" s="8"/>
@@ -5417,7 +5825,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>168</v>
@@ -5431,7 +5839,7 @@
       </c>
       <c r="E85" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A85,-$J$3,$J$2)</f>
-        <v>-12.36392947957</v>
+        <v>0</v>
       </c>
       <c r="F85" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A85,$I$2,$J$2)/100000000</f>
@@ -5441,7 +5849,7 @@
         <v>166</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>偏股混合型基金指数</v>
       </c>
       <c r="I85" s="3"/>
@@ -5450,8 +5858,8 @@
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:14" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A86" s="15" t="s">
-        <v>449</v>
+      <c r="A86" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>170</v>
@@ -5465,7 +5873,7 @@
       </c>
       <c r="E86" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A86,-$J$3,$J$2)</f>
-        <v>-8.5526204810620001</v>
+        <v>0</v>
       </c>
       <c r="F86" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A86,$I$2,$J$2)/100000000</f>
@@ -5475,7 +5883,7 @@
         <v>166</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="7"/>
@@ -5483,7 +5891,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>172</v>
@@ -5497,7 +5905,7 @@
       </c>
       <c r="E87" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A87,-$J$3,$J$2)</f>
-        <v>0.45225852717923998</v>
+        <v>0</v>
       </c>
       <c r="F87" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A87,$I$2,$J$2)/100000000</f>
@@ -5507,7 +5915,7 @@
         <v>166</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>偏债混合型基金指数</v>
       </c>
       <c r="I87" s="9"/>
@@ -5516,7 +5924,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>174</v>
@@ -5530,7 +5938,7 @@
       </c>
       <c r="E88" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A88,-$J$3,$J$2)</f>
-        <v>-7.5582996482519</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A88,$I$2,$J$2)/100000000</f>
@@ -5540,7 +5948,7 @@
         <v>166</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>股票型基金指数</v>
       </c>
       <c r="I88" s="9"/>
@@ -5549,7 +5957,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>176</v>
@@ -5563,7 +5971,7 @@
       </c>
       <c r="E89" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A89,-$J$3,$J$2)</f>
-        <v>3.2054454481635002</v>
+        <v>0</v>
       </c>
       <c r="F89" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A89,$I$2,$J$2)/100000000</f>
@@ -5573,7 +5981,7 @@
         <v>166</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>债券型基金指数</v>
       </c>
       <c r="I89" s="9"/>
@@ -5582,7 +5990,7 @@
     </row>
     <row r="90" spans="1:14" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>178</v>
@@ -5596,7 +6004,7 @@
       </c>
       <c r="E90" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A90,-$J$3,$J$2)</f>
-        <v>3.9147119930871002</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A90,$I$2,$J$2)/100000000</f>
@@ -5606,7 +6014,7 @@
         <v>166</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>混合债券型一级基金指数</v>
       </c>
       <c r="I90" s="10"/>
@@ -5616,7 +6024,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>180</v>
@@ -5630,7 +6038,7 @@
       </c>
       <c r="E91" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A91,-$J$3,$J$2)</f>
-        <v>0.74307177949807002</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A91,$I$2,$J$2)/100000000</f>
@@ -5640,7 +6048,7 @@
         <v>166</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>混合债券型二级基金指数</v>
       </c>
       <c r="I91" s="9"/>
@@ -5648,13 +6056,13 @@
       <c r="K91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="15" t="s">
-        <v>455</v>
+      <c r="A92" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="16" t="s">
         <v>183</v>
       </c>
       <c r="D92" s="5">
@@ -5663,17 +6071,17 @@
       </c>
       <c r="E92" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A92,-$J$3,$J$2)</f>
-        <v>-4.4214787711705998</v>
+        <v>0</v>
       </c>
       <c r="F92" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A92,$I$2,$J$2)/100000000</f>
-        <v>165.06573006721999</v>
+        <v>123.67777047</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>两岸三地</v>
       </c>
       <c r="I92" s="9"/>
@@ -5681,32 +6089,32 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A93" s="15" t="s">
-        <v>338</v>
+      <c r="A93" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="5">
         <f>RTD("tdf.quote","",A93,"changeRatio")</f>
-        <v>-0.38991072834727974</v>
+        <v>-9.2478096781896779E-2</v>
       </c>
       <c r="E93" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A93,-$J$3,$J$2)</f>
-        <v>-10.263148724331</v>
+        <v>-9.2478096781897001E-2</v>
       </c>
       <c r="F93" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A93,$I$2,$J$2)/100000000</f>
-        <v>119.79616466939</v>
+        <v>176.56851</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>恒生指数</v>
       </c>
       <c r="I93" s="9"/>
@@ -5714,32 +6122,32 @@
       <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A94" s="15" t="s">
-        <v>339</v>
+      <c r="A94" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="5">
         <f>RTD("tdf.quote","",A94,"changeRatio")</f>
-        <v>-0.61171158584602359</v>
+        <v>-0.39104244439864555</v>
       </c>
       <c r="E94" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A94,-$J$3,$J$2)</f>
-        <v>-9.1336754022454993</v>
+        <v>-0.39104244439864999</v>
       </c>
       <c r="F94" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A94,$I$2,$J$2)/100000000</f>
-        <v>25.702422219183997</v>
+        <v>18.496096000000001</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>恒生国企指数</v>
       </c>
       <c r="I94" s="9"/>
@@ -5748,13 +6156,13 @@
       <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D95" s="5">
@@ -5773,7 +6181,7 @@
         <v>184</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>标普500</v>
       </c>
       <c r="I95" s="9"/>
@@ -5788,16 +6196,16 @@
       <c r="B96" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D96" s="5">
         <f>RTD("tdf.quote","",A96,"changeRatio")</f>
-        <v>0.95051213881094421</v>
+        <v>-0.21311084784557344</v>
       </c>
       <c r="E96" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A96,-$J$3,$J$2)</f>
-        <v>27.227533876433</v>
+        <v>-0.21311084784557</v>
       </c>
       <c r="F96" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A96,$I$2,$J$2)/100000000</f>
@@ -5807,7 +6215,7 @@
         <v>184</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>日经225</v>
       </c>
       <c r="I96" s="9"/>
@@ -5815,22 +6223,22 @@
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A97" s="15" t="s">
-        <v>456</v>
+      <c r="A97" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D97" s="5">
         <f>RTD("tdf.quote","",A97,"changeRatio")</f>
-        <v>-0.30673712997523345</v>
+        <v>-0.52723424794859808</v>
       </c>
       <c r="E97" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A97,-$J$3,$J$2)</f>
-        <v>-0.15904719633082001</v>
+        <v>-0.39356922734192001</v>
       </c>
       <c r="F97" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A97,$I$2,$J$2)/100000000</f>
@@ -5840,7 +6248,7 @@
         <v>184</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="4"/>
@@ -5854,16 +6262,16 @@
       <c r="B98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>192</v>
       </c>
       <c r="D98" s="5">
         <f>RTD("tdf.quote","",A98,"changeRatio")</f>
-        <v>0.43978353632916478</v>
+        <v>-0.20033131717840949</v>
       </c>
       <c r="E98" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A98,-$J$3,$J$2)</f>
-        <v>2.8140291400609998</v>
+        <v>0</v>
       </c>
       <c r="F98" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A98,$I$2,$J$2)/100000000</f>
@@ -5873,7 +6281,7 @@
         <v>184</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>英国富时100</v>
       </c>
       <c r="I98" s="9"/>
@@ -5888,16 +6296,16 @@
       <c r="B99" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="16" t="s">
         <v>194</v>
       </c>
       <c r="D99" s="5">
         <f>RTD("tdf.quote","",A99,"changeRatio")</f>
-        <v>-0.52091672736961103</v>
+        <v>-0.61066982787090962</v>
       </c>
       <c r="E99" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A99,-$J$3,$J$2)</f>
-        <v>9.4195311320611008</v>
+        <v>0</v>
       </c>
       <c r="F99" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A99,$I$2,$J$2)/100000000</f>
@@ -5907,7 +6315,7 @@
         <v>184</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>德国DAX</v>
       </c>
       <c r="I99" s="9"/>
@@ -5922,16 +6330,16 @@
       <c r="B100" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D100" s="5">
         <f>RTD("tdf.quote","",A100,"changeRatio")</f>
-        <v>-0.33922896512496115</v>
+        <v>-0.59755572958604231</v>
       </c>
       <c r="E100" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A100,-$J$3,$J$2)</f>
-        <v>10.466955244177999</v>
+        <v>0</v>
       </c>
       <c r="F100" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A100,$I$2,$J$2)/100000000</f>
@@ -5941,7 +6349,7 @@
         <v>184</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>法国CAC40</v>
       </c>
       <c r="I100" s="9"/>
@@ -5956,7 +6364,7 @@
       <c r="B101" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D101" s="5">
@@ -5975,7 +6383,7 @@
         <v>184</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>越南VN30</v>
       </c>
       <c r="I101" s="9"/>
@@ -5990,26 +6398,26 @@
       <c r="B102" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D102" s="5">
         <f>RTD("tdf.quote","",A102,"changeRatio")</f>
-        <v>-0.19855466706861494</v>
+        <v>-1.4247172089005875</v>
       </c>
       <c r="E102" s="5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_nd_index",A102,-$J$3,$J$2)</f>
-        <v>-15.654235794271001</v>
+        <v>-1.4247172089005999</v>
       </c>
       <c r="F102" s="4">
         <f ca="1">[1]!thsiFinD("ths_daily_avg_vol_int_index",A102,$I$2,$J$2)/100000000</f>
-        <v>11.248715486351999</v>
+        <v>11.768977635000001</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>朝阳88（分析师预期）</v>
       </c>
       <c r="I102" s="9"/>
@@ -7218,24 +7626,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F102">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D102">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -7260,34 +7650,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F102">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8E4E40-B728-4B91-B62C-CF1C07D31CF8}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="121" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9375" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="23.4375" customWidth="1"/>
+    <col min="9" max="9" width="10.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>201</v>
@@ -7295,14 +7709,23 @@
       <c r="E1" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="str">
+        <f>B2</f>
+        <v>931078.CSI</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>LEFT(A2,LEN(A2)-4)</f>
-        <v>931078</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>204</v>
@@ -7310,15 +7733,29 @@
       <c r="D2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A2,$H$2,$I$2)</f>
+        <v>3.8700000000006E-2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>C2</f>
+        <v>中证转债及可交换债</v>
+      </c>
+      <c r="H2" s="13">
+        <v>45181</v>
+      </c>
+      <c r="I2" s="12">
+        <f ca="1">TODAY()</f>
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A11" si="0">B3</f>
+        <v>H11073.CSI</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B11" si="0">LEFT(A3,LEN(A3)-4)</f>
-        <v>H11073</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>207</v>
@@ -7326,15 +7763,29 @@
       <c r="D3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A3,$H$2,$I$2)</f>
+        <v>-0.10969999999997999</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F11" si="1">C3</f>
+        <v>中证信用</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="1">
+        <f ca="1">I2-H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>H20909.CSI</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>H20909</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>210</v>
@@ -7342,15 +7793,22 @@
       <c r="D4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A4,$H$2,$I$2)</f>
+        <v>-3.9000000000000999E-2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>中证地产债</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>H01006.CSI</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>H01006</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>213</v>
@@ -7358,15 +7816,24 @@
       <c r="D5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A5,$H$2,$I$2)</f>
+        <v>3.3900000000002997E-2</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>中证国债</v>
+      </c>
+      <c r="H5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>LEFT(A6,LEN(A6)-3)</f>
-        <v>CBA00123</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>216</v>
@@ -7374,15 +7841,23 @@
       <c r="D6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="21" t="str">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A6,$H$2,$I$2)</f>
+        <v>锁</v>
+      </c>
+      <c r="F6" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" ref="B7:B10" si="1">LEFT(A7,LEN(A7)-3)</f>
-        <v>CBA00133</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>219</v>
@@ -7390,15 +7865,29 @@
       <c r="D7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="21" t="str">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A7,$H$2,$I$2)</f>
+        <v>锁</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>中债-新综合全价(3-5年)指数</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1">VLOOKUP(I7,$E$2:$F$12,2,0)</f>
+        <v>中证转债及可交换债</v>
+      </c>
+      <c r="I7" s="15">
+        <f ca="1">MAX($E$2:$E$12)</f>
+        <v>3.8700000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CBA00143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>222</v>
@@ -7406,15 +7895,29 @@
       <c r="D8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="21" t="str">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A8,$H$2,$I$2)</f>
+        <v>锁</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>中债-新综合全价(5-7年)指数</v>
+      </c>
+      <c r="H8" t="str">
+        <f ca="1">VLOOKUP(I8,$E$2:$F$12,2,0)</f>
+        <v>中证信用</v>
+      </c>
+      <c r="I8" s="15">
+        <f ca="1">MIN($E$2:$E$12)</f>
+        <v>-0.10969999999997999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CBA00153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>225</v>
@@ -7422,15 +7925,21 @@
       <c r="D9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="21" t="str">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A9,$H$2,$I$2)</f>
+        <v>锁</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>中债-新综合全价(7-10年)指数</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CBA00163</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>228</v>
@@ -7438,15 +7947,26 @@
       <c r="D10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="21" t="str">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A10,$H$2,$I$2)</f>
+        <v>锁</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>中债-新综合全价(10年以上)指数</v>
+      </c>
+      <c r="H10" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>931059.CSI</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>931059</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>231</v>
@@ -7454,643 +7974,1148 @@
       <c r="D11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A11,$H$2,$I$2)</f>
+        <v>7.6999999999997999E-3</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>中证同业存单AAA指数</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <f>LEFT(A12,LEN(A12)-3)</f>
-        <v>INSYBUE</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A12,$H$2,$I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99881E27-89BD-4D6B-ABC8-795679AEAC31}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1875" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A2,$H$2,$I$2)</f>
+        <v>1.2641</v>
+      </c>
+      <c r="F2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H2" s="13">
+        <v>45181</v>
+      </c>
+      <c r="I2" s="12">
+        <f ca="1">TODAY()</f>
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A3,$H$2,$I$2)</f>
+        <v>2.3506</v>
+      </c>
+      <c r="F3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="1">
+        <f ca="1">I2-H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A4,$H$2,$I$2)</f>
+        <v>-3.09</v>
+      </c>
+      <c r="F4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A5,$H$2,$I$2)</f>
+        <v>1.127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A6,$H$2,$I$2)</f>
+        <v>-26.068300000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A7,$H$2,$I$2)</f>
+        <v>-236.84610000000001</v>
+      </c>
+      <c r="F7" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H7" t="str">
+        <f ca="1">VLOOKUP(I7,$E$2:$F$47,2,0)</f>
+        <v>南华尿素</v>
+      </c>
+      <c r="I7" s="15">
+        <f ca="1">MAX($E$2:$E$47)</f>
+        <v>74.665899999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A8,$H$2,$I$2)</f>
+        <v>1.0282</v>
+      </c>
+      <c r="F8" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="H8" t="str">
+        <f ca="1">VLOOKUP(I8,$E$2:$F$47,2,0)</f>
+        <v>贵金属指数</v>
+      </c>
+      <c r="I8" s="15">
+        <f ca="1">MIN($E$2:$E$47)</f>
+        <v>-236.84610000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E9" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A9,$H$2,$I$2)</f>
+        <v>0.57399999999997997</v>
+      </c>
+      <c r="F9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A10,$H$2,$I$2)</f>
+        <v>-3.09</v>
+      </c>
+      <c r="F10" t="s">
+        <v>457</v>
+      </c>
+      <c r="K10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A11,$H$2,$I$2)</f>
+        <v>20.56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A12,$H$2,$I$2)</f>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A13,$H$2,$I$2)</f>
+        <v>-27.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A14,$H$2,$I$2)</f>
+        <v>32.979999999999997</v>
+      </c>
+      <c r="F14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A15,$H$2,$I$2)</f>
+        <v>9.1170000000000009</v>
+      </c>
+      <c r="F15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A16,$H$2,$I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>476</v>
+      </c>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E17" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A17,$H$2,$I$2)</f>
+        <v>-1.6435</v>
+      </c>
+      <c r="F17" t="s">
+        <v>494</v>
+      </c>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A18,$H$2,$I$2)</f>
+        <v>73.819999999999993</v>
+      </c>
+      <c r="F18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A19,$H$2,$I$2)</f>
+        <v>-3.71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A20,$H$2,$I$2)</f>
+        <v>8.6613000000000007</v>
+      </c>
+      <c r="F20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A21,$H$2,$I$2)</f>
+        <v>27.459</v>
+      </c>
+      <c r="F21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A22,$H$2,$I$2)</f>
+        <v>0.74000000000000998</v>
+      </c>
+      <c r="F22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A23,$H$2,$I$2)</f>
+        <v>50.225999999999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A24,$H$2,$I$2)</f>
+        <v>-6.3021000000000003</v>
+      </c>
+      <c r="F24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A25,$H$2,$I$2)</f>
+        <v>-24.3491</v>
+      </c>
+      <c r="F25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A26,$H$2,$I$2)</f>
+        <v>27.223400000000002</v>
+      </c>
+      <c r="F26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A27,$H$2,$I$2)</f>
+        <v>52.51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A28,$H$2,$I$2)</f>
+        <v>22.79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A29,$H$2,$I$2)</f>
+        <v>-45.16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A30,$H$2,$I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A31,$H$2,$I$2)</f>
+        <v>12.2624</v>
+      </c>
+      <c r="F31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A32,$H$2,$I$2)</f>
+        <v>-6.2008999999998</v>
+      </c>
+      <c r="F32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A33,$H$2,$I$2)</f>
+        <v>18.4969</v>
+      </c>
+      <c r="F33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A34,$H$2,$I$2)</f>
+        <v>74.665899999999993</v>
+      </c>
+      <c r="F34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A35,$H$2,$I$2)</f>
+        <v>-17.75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A36,$H$2,$I$2)</f>
+        <v>13.99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="E37" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A37,$H$2,$I$2)</f>
+        <v>0.71360000000003998</v>
+      </c>
+      <c r="F37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A38,$H$2,$I$2)</f>
+        <v>61.92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A39,$H$2,$I$2)</f>
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A40,$H$2,$I$2)</f>
+        <v>39.78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A41,$H$2,$I$2)</f>
+        <v>6.7519</v>
+      </c>
+      <c r="F41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A42,$H$2,$I$2)</f>
+        <v>-7.2805000000001003</v>
+      </c>
+      <c r="F42" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A43,$H$2,$I$2)</f>
+        <v>-30.7361</v>
+      </c>
+      <c r="F43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A44,$H$2,$I$2)</f>
+        <v>-33.802599999999998</v>
+      </c>
+      <c r="F44" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E45" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A45,$H$2,$I$2)</f>
+        <v>-20.241</v>
+      </c>
+      <c r="F45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="E46" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A46,$H$2,$I$2)</f>
+        <v>-0.78489999999999005</v>
+      </c>
+      <c r="F46" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" s="21">
+        <f ca="1">[1]!thsiFinD("ths_chg_int_index",A47,$H$2,$I$2)</f>
+        <v>-236.84610000000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>554</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>